--- a/Last Call/Assets/Data/conversationMAIN/thoughts.xlsx
+++ b/Last Call/Assets/Data/conversationMAIN/thoughts.xlsx
@@ -144,9 +144,6 @@
     <t>Give</t>
   </si>
   <si>
-    <t>Supperiority</t>
-  </si>
-  <si>
     <t>Humanism</t>
   </si>
   <si>
@@ -978,9 +975,6 @@
     <t>Of course! The Japanese Kamikaze attacks were peak civilization.</t>
   </si>
   <si>
-    <t>As a supperior officer, my judgment in moral matters is greater than yours.</t>
-  </si>
-  <si>
     <t>I honor the ideals of the constitution and will not act in contempt of them.</t>
   </si>
   <si>
@@ -2028,9 +2022,6 @@
     <t>I will. Let's get the keys, Kiddo.</t>
   </si>
   <si>
-    <t>Your reasons are poor while mine are supperior.</t>
-  </si>
-  <si>
     <t>One way or another, you're not leaving this mess. Yes or no?</t>
   </si>
   <si>
@@ -2221,6 +2212,15 @@
   </si>
   <si>
     <t>DEFCON 1. . . Jack. Are we maximally ready, are we immediately responsive?</t>
+  </si>
+  <si>
+    <t>As a superior officer, my judgment in moral matters is greater than yours.</t>
+  </si>
+  <si>
+    <t>Your reasons are poor while mine are superior.</t>
+  </si>
+  <si>
+    <t>Superiority</t>
   </si>
 </sst>
 </file>
@@ -3148,8 +3148,8 @@
   <dimension ref="A1:Y646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,7 +3219,7 @@
         <v>32</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>36</v>
@@ -3249,7 +3249,7 @@
         <v>34</v>
       </c>
       <c r="Y1" s="20" t="s">
-        <v>41</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -3297,7 +3297,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -3308,7 +3308,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -3319,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
@@ -3336,7 +3336,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
@@ -3353,7 +3353,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="S8" s="14">
         <v>0.1</v>
@@ -3364,7 +3364,7 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -3395,10 +3395,10 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P11" s="11">
         <v>0.2</v>
@@ -3440,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" s="11">
         <v>1</v>
@@ -3460,7 +3460,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3468,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>40</v>
@@ -3482,7 +3482,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
         <v>40</v>
@@ -3502,7 +3502,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
         <v>9</v>
@@ -3519,7 +3519,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
@@ -3527,7 +3527,7 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S20" s="14">
         <v>2</v>
@@ -3541,10 +3541,10 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
         <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
@@ -3560,7 +3560,7 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O23" s="23">
         <v>1</v>
@@ -3574,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V24" s="17">
         <v>2</v>
@@ -3591,10 +3591,10 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O25" s="23">
         <v>1</v>
@@ -3611,10 +3611,10 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O26" s="23">
         <v>0.5</v>
@@ -3628,7 +3628,7 @@
         <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
         <v>40</v>
@@ -3659,7 +3659,7 @@
         <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="J29">
         <v>7</v>
@@ -3679,7 +3679,7 @@
         <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
@@ -3690,7 +3690,7 @@
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31" s="1">
         <v>-3</v>
@@ -3707,7 +3707,7 @@
         <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
@@ -3721,10 +3721,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
         <v>66</v>
-      </c>
-      <c r="I33" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
@@ -3740,7 +3740,7 @@
         <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
@@ -3751,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" t="s">
         <v>9</v>
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
@@ -3782,10 +3782,10 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
@@ -3793,7 +3793,7 @@
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
         <v>37</v>
@@ -3810,7 +3810,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
@@ -3821,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
@@ -3829,7 +3829,7 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
@@ -3840,7 +3840,7 @@
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
@@ -3854,7 +3854,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="I44" t="s">
         <v>20</v>
@@ -3871,7 +3871,7 @@
         <v>20</v>
       </c>
       <c r="E45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
@@ -3885,7 +3885,7 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
@@ -3896,7 +3896,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O47" s="23">
         <v>0.5</v>
@@ -3907,7 +3907,7 @@
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V48" s="17">
         <v>0.5</v>
@@ -3921,12 +3921,12 @@
         <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -3938,10 +3938,10 @@
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K51" s="1">
         <v>5</v>
@@ -3969,7 +3969,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M52" s="1">
         <v>5</v>
@@ -3986,10 +3986,10 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O53" s="23">
         <v>-2</v>
@@ -4006,7 +4006,7 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="I54" t="s">
         <v>9</v>
@@ -4020,7 +4020,7 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="O55" s="23">
         <v>-1</v>
@@ -4043,7 +4043,7 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="I56" t="s">
         <v>14</v>
@@ -4069,7 +4069,7 @@
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I57" t="s">
         <v>14</v>
@@ -4089,10 +4089,10 @@
         <v>20</v>
       </c>
       <c r="E58" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="I58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V58" s="17">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F59" t="s">
         <v>37</v>
@@ -4118,7 +4118,7 @@
         <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
@@ -4132,10 +4132,10 @@
         <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U60" s="16">
         <v>5</v>
@@ -4146,10 +4146,10 @@
         <v>20</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
@@ -4160,10 +4160,10 @@
         <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L62" s="1">
         <v>-5</v>
@@ -4183,10 +4183,10 @@
         <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L63" s="1">
         <v>5</v>
@@ -4203,7 +4203,7 @@
         <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S64" s="14">
         <v>5</v>
@@ -4220,7 +4220,7 @@
         <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O65" s="23">
         <v>5</v>
@@ -4237,7 +4237,7 @@
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="23">
         <v>3</v>
@@ -4260,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U68" s="16">
         <v>1</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -4291,7 +4291,7 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P69" s="11">
         <v>2</v>
@@ -4305,10 +4305,10 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N70" s="1">
         <v>-3</v>
@@ -4325,7 +4325,7 @@
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O71" s="23">
         <v>2</v>
@@ -4339,10 +4339,10 @@
         <v>11</v>
       </c>
       <c r="E72" t="s">
+        <v>95</v>
+      </c>
+      <c r="I72" t="s">
         <v>96</v>
-      </c>
-      <c r="I72" t="s">
-        <v>97</v>
       </c>
       <c r="O72" s="23">
         <v>1</v>
@@ -4362,13 +4362,13 @@
         <v>23</v>
       </c>
       <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" t="s">
         <v>98</v>
-      </c>
-      <c r="G73" t="s">
-        <v>53</v>
-      </c>
-      <c r="I73" t="s">
-        <v>99</v>
       </c>
       <c r="K73" s="1">
         <v>3</v>
@@ -4385,7 +4385,7 @@
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
@@ -4396,7 +4396,7 @@
         <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O75" s="23">
         <v>1</v>
@@ -4419,10 +4419,10 @@
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T76" s="15">
         <v>1</v>
@@ -4436,7 +4436,7 @@
         <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K77" s="1">
         <v>10</v>
@@ -4462,7 +4462,7 @@
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T78" s="15">
         <v>3</v>
@@ -4473,12 +4473,12 @@
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -4490,7 +4490,7 @@
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I80" t="s">
         <v>14</v>
@@ -4504,7 +4504,7 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:25" x14ac:dyDescent="0.25">
@@ -4518,13 +4518,13 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K82" s="1">
         <v>4</v>
@@ -4538,13 +4538,13 @@
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K83" s="1">
         <v>4</v>
@@ -4564,13 +4564,13 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K84" s="1">
         <v>5</v>
@@ -4587,13 +4587,13 @@
         <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K85" s="1">
         <v>5</v>
@@ -4610,13 +4610,13 @@
         <v>22</v>
       </c>
       <c r="E86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K86" s="1">
         <v>6</v>
@@ -4633,13 +4633,13 @@
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K87" s="1">
         <v>6</v>
@@ -4659,13 +4659,13 @@
         <v>27</v>
       </c>
       <c r="E88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G88" t="s">
         <v>40</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K88" s="1">
         <v>7</v>
@@ -4685,7 +4685,7 @@
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O89" s="23">
         <v>-1</v>
@@ -4702,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R90" s="13">
         <v>-3</v>
@@ -4722,7 +4722,7 @@
         <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O91" s="23">
         <v>1</v>
@@ -4745,10 +4745,10 @@
         <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K92" s="1">
         <v>-10</v>
@@ -4774,10 +4774,10 @@
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K93" s="1">
         <v>7</v>
@@ -4794,7 +4794,7 @@
         <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O94" s="23">
         <v>1</v>
@@ -4814,7 +4814,7 @@
         <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O95" s="23">
         <v>-1</v>
@@ -4834,10 +4834,10 @@
         <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S96" s="14">
         <v>1</v>
@@ -4860,7 +4860,7 @@
         <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I97" t="s">
         <v>9</v>
@@ -4886,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O98" s="23">
         <v>1</v>
@@ -4909,10 +4909,10 @@
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S99" s="14">
         <v>2</v>
@@ -4923,10 +4923,10 @@
         <v>5</v>
       </c>
       <c r="E100" t="s">
+        <v>125</v>
+      </c>
+      <c r="I100" t="s">
         <v>126</v>
-      </c>
-      <c r="I100" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
@@ -4943,7 +4943,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="S101" s="14">
         <v>0.5</v>
@@ -4957,7 +4957,7 @@
         <v>8</v>
       </c>
       <c r="E102" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I102" t="s">
         <v>20</v>
@@ -4974,7 +4974,7 @@
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="W103" s="18">
         <v>2</v>
@@ -4988,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
@@ -4999,7 +4999,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O105" s="23">
         <v>0.5</v>
@@ -5013,10 +5013,10 @@
         <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
@@ -5027,7 +5027,7 @@
         <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L107" s="1">
         <v>3</v>
@@ -5047,7 +5047,7 @@
         <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S108" s="14">
         <v>2</v>
@@ -5061,7 +5061,7 @@
         <v>22</v>
       </c>
       <c r="E109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q109" s="12">
         <v>3</v>
@@ -5072,10 +5072,10 @@
         <v>26</v>
       </c>
       <c r="E110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I110" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O110" s="23">
         <v>-3</v>
@@ -5092,7 +5092,7 @@
         <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P111" s="11">
         <v>1</v>
@@ -5118,7 +5118,7 @@
         <v>24</v>
       </c>
       <c r="E112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S112" s="14">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
         <v>18</v>
       </c>
       <c r="E114" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L114" s="1">
         <v>2</v>
@@ -5169,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="E115" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G115" t="s">
         <v>40</v>
@@ -5186,7 +5186,7 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -5203,10 +5203,10 @@
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.25">
@@ -5214,7 +5214,7 @@
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="S118" s="14">
         <v>0.5</v>
@@ -5228,10 +5228,10 @@
         <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I119" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O119" s="23">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O120" s="23">
         <v>0.5</v>
@@ -5259,7 +5259,7 @@
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S121" s="14">
         <v>1</v>
@@ -5276,10 +5276,10 @@
         <v>16</v>
       </c>
       <c r="E122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I122" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q122" s="12">
         <v>0.5</v>
@@ -5296,7 +5296,7 @@
         <v>16</v>
       </c>
       <c r="E123" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P123" s="11">
         <v>0.5</v>
@@ -5316,7 +5316,7 @@
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
@@ -5330,10 +5330,10 @@
         <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
@@ -5344,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I126" t="s">
         <v>20</v>
@@ -5355,7 +5355,7 @@
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -5367,10 +5367,10 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
@@ -5378,10 +5378,10 @@
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="I128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O128" s="23">
         <v>0.5</v>
@@ -5395,13 +5395,13 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
       </c>
       <c r="I129" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T129" s="15">
         <v>1</v>
@@ -5415,13 +5415,13 @@
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G130" t="s">
         <v>40</v>
       </c>
       <c r="I130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O130" s="23">
         <v>0.5</v>
@@ -5447,10 +5447,10 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I131" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K131" s="1">
         <v>5</v>
@@ -5461,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.25">
@@ -5469,7 +5469,7 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.25">
@@ -5483,10 +5483,10 @@
         <v>16</v>
       </c>
       <c r="E134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I134" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="V134" s="17">
         <v>0.25</v>
@@ -5506,7 +5506,7 @@
         <v>18</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K135" s="1">
         <v>5</v>
@@ -5523,7 +5523,7 @@
         <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.25">
@@ -5534,15 +5534,15 @@
         <v>16</v>
       </c>
       <c r="E137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I137" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -5554,7 +5554,7 @@
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S138" s="14">
         <v>0.25</v>
@@ -5568,7 +5568,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P139" s="11">
         <v>0.25</v>
@@ -5588,10 +5588,10 @@
         <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P140" s="11">
         <v>0.25</v>
@@ -5605,7 +5605,7 @@
         <v>12</v>
       </c>
       <c r="E141" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O141" s="23">
         <v>0.25</v>
@@ -5622,7 +5622,7 @@
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.25">
@@ -5633,10 +5633,10 @@
         <v>8</v>
       </c>
       <c r="E143" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I143" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S143" s="14">
         <v>1</v>
@@ -5650,7 +5650,7 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V144" s="17">
         <v>-0.25</v>
@@ -5661,10 +5661,10 @@
         <v>16</v>
       </c>
       <c r="E145" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I145" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S145" s="14">
         <v>1</v>
@@ -5675,7 +5675,7 @@
         <v>18</v>
       </c>
       <c r="E146" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="S146" s="14">
         <v>1</v>
@@ -5686,10 +5686,10 @@
         <v>20</v>
       </c>
       <c r="E147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K147" s="1">
         <v>3</v>
@@ -5703,7 +5703,7 @@
         <v>22</v>
       </c>
       <c r="E148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K148" s="1">
         <v>5</v>
@@ -5720,7 +5720,7 @@
         <v>23</v>
       </c>
       <c r="E149" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="S149" s="14">
         <v>1</v>
@@ -5734,10 +5734,10 @@
         <v>24</v>
       </c>
       <c r="E150" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I150" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K150" s="1">
         <v>5</v>
@@ -5760,7 +5760,7 @@
         <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:24" x14ac:dyDescent="0.25">
@@ -5768,10 +5768,10 @@
         <v>22</v>
       </c>
       <c r="E152" t="s">
+        <v>181</v>
+      </c>
+      <c r="I152" t="s">
         <v>182</v>
-      </c>
-      <c r="I152" t="s">
-        <v>183</v>
       </c>
       <c r="T152" s="15">
         <v>0.5</v>
@@ -5785,7 +5785,7 @@
         <v>24</v>
       </c>
       <c r="E153" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O153" s="23">
         <v>0.5</v>
@@ -5799,7 +5799,7 @@
         <v>26</v>
       </c>
       <c r="E154" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P154" s="11">
         <v>1</v>
@@ -5819,10 +5819,10 @@
         <v>26</v>
       </c>
       <c r="E155" t="s">
+        <v>187</v>
+      </c>
+      <c r="I155" t="s">
         <v>188</v>
-      </c>
-      <c r="I155" t="s">
-        <v>189</v>
       </c>
       <c r="K155" s="1">
         <v>5</v>
@@ -5839,7 +5839,7 @@
         <v>24</v>
       </c>
       <c r="E156" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K156" s="1">
         <v>-5</v>
@@ -5868,7 +5868,7 @@
         <v>22</v>
       </c>
       <c r="E157" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W157" s="18">
         <v>1</v>
@@ -5888,10 +5888,10 @@
         <v>20</v>
       </c>
       <c r="E158" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I158" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S158" s="14">
         <v>3</v>
@@ -5905,7 +5905,7 @@
         <v>20</v>
       </c>
       <c r="E159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O159" s="23">
         <v>0.5</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -5925,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="O160" s="23">
         <v>1</v>
@@ -5945,13 +5945,13 @@
         <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G161" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I161" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S161" s="14">
         <v>1</v>
@@ -5968,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="E162" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="Q162" s="12">
         <v>-1</v>
@@ -5979,7 +5979,7 @@
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q163" s="12">
         <v>-1</v>
@@ -5990,7 +5990,7 @@
         <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G164" t="s">
         <v>40</v>
@@ -6004,7 +6004,7 @@
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S165" s="14">
         <v>2</v>
@@ -6018,10 +6018,10 @@
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I166" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W166" s="18">
         <v>1</v>
@@ -6032,10 +6032,10 @@
         <v>14</v>
       </c>
       <c r="E167" t="s">
+        <v>192</v>
+      </c>
+      <c r="I167" t="s">
         <v>193</v>
-      </c>
-      <c r="I167" t="s">
-        <v>194</v>
       </c>
       <c r="O167" s="23">
         <v>0.5</v>
@@ -6049,7 +6049,7 @@
         <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R168" s="13">
         <v>1</v>
@@ -6069,10 +6069,10 @@
         <v>16</v>
       </c>
       <c r="E169" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I169" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O169" s="23">
         <v>3</v>
@@ -6095,10 +6095,10 @@
         <v>20</v>
       </c>
       <c r="E170" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U170" s="16">
         <v>10</v>
@@ -6109,7 +6109,7 @@
         <v>18</v>
       </c>
       <c r="E171" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S171" s="14">
         <v>2</v>
@@ -6123,10 +6123,10 @@
         <v>14</v>
       </c>
       <c r="E172" t="s">
+        <v>197</v>
+      </c>
+      <c r="I172" t="s">
         <v>198</v>
-      </c>
-      <c r="I172" t="s">
-        <v>199</v>
       </c>
       <c r="O172" s="23">
         <v>2</v>
@@ -6149,10 +6149,10 @@
         <v>18</v>
       </c>
       <c r="E173" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="I173" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K173" s="1">
         <v>3</v>
@@ -6172,10 +6172,10 @@
         <v>18</v>
       </c>
       <c r="E174" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K174" s="1">
         <v>5</v>
@@ -6198,7 +6198,7 @@
         <v>17</v>
       </c>
       <c r="E175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O175" s="23">
         <v>2</v>
@@ -6212,7 +6212,7 @@
         <v>20</v>
       </c>
       <c r="E176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O176" s="23">
         <v>1</v>
@@ -6235,7 +6235,7 @@
         <v>20</v>
       </c>
       <c r="E177" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L177" s="1">
         <v>-5</v>
@@ -6261,7 +6261,7 @@
         <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O178" s="23">
         <v>1</v>
@@ -6284,7 +6284,7 @@
         <v>15</v>
       </c>
       <c r="E179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K179" s="1">
         <v>5</v>
@@ -6307,7 +6307,7 @@
         <v>15</v>
       </c>
       <c r="E180" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K180" s="1">
         <v>5</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -6336,7 +6336,7 @@
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O181" s="23">
         <v>0.5</v>
@@ -6359,7 +6359,7 @@
         <v>8</v>
       </c>
       <c r="E182" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O182" s="23">
         <v>1</v>
@@ -6379,10 +6379,10 @@
         <v>10</v>
       </c>
       <c r="E183" t="s">
+        <v>209</v>
+      </c>
+      <c r="I183" t="s">
         <v>210</v>
-      </c>
-      <c r="I183" t="s">
-        <v>211</v>
       </c>
       <c r="O183" s="23">
         <v>1</v>
@@ -6399,7 +6399,7 @@
         <v>12</v>
       </c>
       <c r="E184" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="X184" s="19">
         <v>1</v>
@@ -6410,10 +6410,10 @@
         <v>14</v>
       </c>
       <c r="E185" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I185" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S185" s="14">
         <v>1</v>
@@ -6430,7 +6430,7 @@
         <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O186" s="23">
         <v>1</v>
@@ -6450,7 +6450,7 @@
         <v>20</v>
       </c>
       <c r="E187" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K187" s="1">
         <v>5</v>
@@ -6473,7 +6473,7 @@
         <v>15</v>
       </c>
       <c r="E188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O188" s="23">
         <v>0.5</v>
@@ -6487,13 +6487,13 @@
         <v>20</v>
       </c>
       <c r="E189" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G189" t="s">
         <v>40</v>
       </c>
       <c r="I189" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y189" s="21">
         <v>1</v>
@@ -6504,10 +6504,10 @@
         <v>22</v>
       </c>
       <c r="E190" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S190" s="14">
         <v>3</v>
@@ -6527,7 +6527,7 @@
         <v>26</v>
       </c>
       <c r="E191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K191" s="1">
         <v>5</v>
@@ -6550,7 +6550,7 @@
         <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O192" s="23">
         <v>1</v>
@@ -6573,7 +6573,7 @@
         <v>25</v>
       </c>
       <c r="E193" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K193" s="1">
         <v>-5</v>
@@ -6593,7 +6593,7 @@
         <v>20</v>
       </c>
       <c r="E194" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P194" s="11">
         <v>-5</v>
@@ -6607,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="E195" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P195" s="11">
         <v>1</v>
@@ -6627,7 +6627,7 @@
         <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q196" s="12">
         <v>3</v>
@@ -6647,7 +6647,7 @@
         <v>20</v>
       </c>
       <c r="E197" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P197" s="11">
         <v>-1</v>
@@ -6664,10 +6664,10 @@
         <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H198" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P198" s="11">
         <v>-1</v>
@@ -6681,7 +6681,7 @@
         <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T199" s="15">
         <v>1</v>
@@ -6692,7 +6692,7 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -6704,7 +6704,7 @@
         <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O200" s="23">
         <v>0.5</v>
@@ -6718,7 +6718,7 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V201" s="17">
         <v>2</v>
@@ -6735,7 +6735,7 @@
         <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O202" s="23">
         <v>1</v>
@@ -6755,7 +6755,7 @@
         <v>14</v>
       </c>
       <c r="E203" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G203" t="s">
         <v>40</v>
@@ -6772,7 +6772,7 @@
         <v>18</v>
       </c>
       <c r="E204" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O204" s="23">
         <v>0.25</v>
@@ -6792,16 +6792,16 @@
         <v>22</v>
       </c>
       <c r="E205" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F205" t="s">
         <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H205" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="V205" s="17">
         <v>-2</v>
@@ -6812,13 +6812,13 @@
         <v>26</v>
       </c>
       <c r="E206" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G206" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I206" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K206" s="1">
         <v>1</v>
@@ -6841,10 +6841,10 @@
         <v>28</v>
       </c>
       <c r="E207" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G207" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O207" s="23">
         <v>2</v>
@@ -6855,10 +6855,10 @@
         <v>30</v>
       </c>
       <c r="E208" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G208" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U208" s="16">
         <v>-1</v>
@@ -6869,10 +6869,10 @@
         <v>32</v>
       </c>
       <c r="E209" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G209" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S209" s="14">
         <v>0.5</v>
@@ -6889,7 +6889,7 @@
         <v>34</v>
       </c>
       <c r="E210" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S210" s="14">
         <v>1</v>
@@ -6903,7 +6903,7 @@
         <v>20</v>
       </c>
       <c r="E211" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P211" s="11">
         <v>1</v>
@@ -6920,7 +6920,7 @@
         <v>25</v>
       </c>
       <c r="E212" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O212" s="23">
         <v>0.5</v>
@@ -6937,7 +6937,7 @@
         <v>29</v>
       </c>
       <c r="E213" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O213" s="23">
         <v>0.5</v>
@@ -6954,7 +6954,7 @@
         <v>32</v>
       </c>
       <c r="E214" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P214" s="11">
         <v>0.25</v>
@@ -6980,10 +6980,10 @@
         <v>35</v>
       </c>
       <c r="E215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I215" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q215" s="12">
         <v>-0.5</v>
@@ -6997,7 +6997,7 @@
         <v>38</v>
       </c>
       <c r="E216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M216" s="1">
         <v>3</v>
@@ -7011,7 +7011,7 @@
         <v>41</v>
       </c>
       <c r="E217" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G217" t="s">
         <v>40</v>
@@ -7040,7 +7040,7 @@
         <v>38</v>
       </c>
       <c r="E218" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P218" s="11">
         <v>0.5</v>
@@ -7057,7 +7057,7 @@
         <v>41</v>
       </c>
       <c r="E219" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G219" t="s">
         <v>40</v>
@@ -7074,7 +7074,7 @@
         <v>44</v>
       </c>
       <c r="E220" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U220" s="16">
         <v>3</v>
@@ -7094,7 +7094,7 @@
         <v>47</v>
       </c>
       <c r="E221" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K221" s="1">
         <v>-5</v>
@@ -7117,7 +7117,7 @@
         <v>47</v>
       </c>
       <c r="E222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G222" t="s">
         <v>40</v>
@@ -7146,7 +7146,7 @@
         <v>47</v>
       </c>
       <c r="E223" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K223" s="1">
         <v>10</v>
@@ -7175,13 +7175,13 @@
         <v>40</v>
       </c>
       <c r="E224" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F224" t="s">
         <v>37</v>
       </c>
       <c r="H224" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O224" s="23">
         <v>3</v>
@@ -7201,10 +7201,10 @@
         <v>43</v>
       </c>
       <c r="E225" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G225" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P225" s="11">
         <v>5</v>
@@ -7221,10 +7221,10 @@
         <v>46</v>
       </c>
       <c r="E226" t="s">
+        <v>259</v>
+      </c>
+      <c r="I226" t="s">
         <v>260</v>
-      </c>
-      <c r="I226" t="s">
-        <v>261</v>
       </c>
       <c r="P226" s="11">
         <v>5</v>
@@ -7241,7 +7241,7 @@
         <v>49</v>
       </c>
       <c r="E227" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P227" s="11">
         <v>2</v>
@@ -7261,10 +7261,10 @@
         <v>52</v>
       </c>
       <c r="E228" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I228" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O228" s="23">
         <v>1</v>
@@ -7296,7 +7296,7 @@
         <v>50</v>
       </c>
       <c r="E229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K229" s="1">
         <v>3</v>
@@ -7313,10 +7313,10 @@
         <v>50</v>
       </c>
       <c r="E230" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I230" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K230" s="1">
         <v>-3</v>
@@ -7342,7 +7342,7 @@
         <v>50</v>
       </c>
       <c r="E231" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S231" s="14">
         <v>0.5</v>
@@ -7353,7 +7353,7 @@
         <v>45</v>
       </c>
       <c r="E232" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G232" t="s">
         <v>40</v>
@@ -7370,10 +7370,10 @@
         <v>30</v>
       </c>
       <c r="E233" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I233" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O233" s="23">
         <v>1</v>
@@ -7396,10 +7396,10 @@
         <v>20</v>
       </c>
       <c r="E234" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I234" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O234" s="23">
         <v>1</v>
@@ -7413,7 +7413,7 @@
         <v>18</v>
       </c>
       <c r="E235" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V235" s="17">
         <v>0.5</v>
@@ -7427,10 +7427,10 @@
         <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I236" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O236" s="23">
         <v>-1</v>
@@ -7447,7 +7447,7 @@
         <v>15</v>
       </c>
       <c r="E237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S237" s="14">
         <v>3</v>
@@ -7461,7 +7461,7 @@
         <v>15</v>
       </c>
       <c r="E238" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O238" s="23">
         <v>1</v>
@@ -7481,7 +7481,7 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -7493,7 +7493,7 @@
         <v>9</v>
       </c>
       <c r="E239" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.25">
@@ -7504,7 +7504,7 @@
         <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U240" s="16">
         <v>0.5</v>
@@ -7521,7 +7521,7 @@
         <v>13</v>
       </c>
       <c r="E241" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O241" s="23">
         <v>0.25</v>
@@ -7538,7 +7538,7 @@
         <v>15</v>
       </c>
       <c r="E242" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O242" s="23">
         <v>1</v>
@@ -7555,7 +7555,7 @@
         <v>16</v>
       </c>
       <c r="E243" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O243" s="23">
         <v>0.5</v>
@@ -7572,7 +7572,7 @@
         <v>18</v>
       </c>
       <c r="E244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U244" s="16">
         <v>1</v>
@@ -7586,10 +7586,10 @@
         <v>22</v>
       </c>
       <c r="E245" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G245" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="246" spans="2:25" x14ac:dyDescent="0.25">
@@ -7597,7 +7597,7 @@
         <v>26</v>
       </c>
       <c r="E246" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="247" spans="2:25" x14ac:dyDescent="0.25">
@@ -7608,7 +7608,7 @@
         <v>28</v>
       </c>
       <c r="E247" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U247" s="16">
         <v>0.5</v>
@@ -7619,7 +7619,7 @@
         <v>30</v>
       </c>
       <c r="E248" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O248" s="23">
         <v>0.5</v>
@@ -7639,7 +7639,7 @@
         <v>34</v>
       </c>
       <c r="E249" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S249" s="14">
         <v>3</v>
@@ -7650,7 +7650,7 @@
         <v>37</v>
       </c>
       <c r="E250" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P250" s="11">
         <v>0.5</v>
@@ -7670,7 +7670,7 @@
         <v>34</v>
       </c>
       <c r="E251" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="252" spans="2:25" x14ac:dyDescent="0.25">
@@ -7678,7 +7678,7 @@
         <v>37</v>
       </c>
       <c r="E252" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P252" s="11">
         <v>1</v>
@@ -7695,7 +7695,7 @@
         <v>39</v>
       </c>
       <c r="E253" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q253" s="12">
         <v>1</v>
@@ -7712,7 +7712,7 @@
         <v>41</v>
       </c>
       <c r="E254" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O254" s="23">
         <v>1</v>
@@ -7729,10 +7729,10 @@
         <v>39</v>
       </c>
       <c r="E255" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G255" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U255" s="16">
         <v>2</v>
@@ -7743,7 +7743,7 @@
         <v>41</v>
       </c>
       <c r="E256" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U256" s="16">
         <v>3</v>
@@ -7754,7 +7754,7 @@
         <v>43</v>
       </c>
       <c r="E257" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O257" s="23">
         <v>-1</v>
@@ -7768,10 +7768,10 @@
         <v>47</v>
       </c>
       <c r="E258" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G258" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>51</v>
       </c>
       <c r="E259" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.25">
@@ -7787,7 +7787,7 @@
         <v>51</v>
       </c>
       <c r="E260" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.25">
@@ -7801,10 +7801,10 @@
         <v>54</v>
       </c>
       <c r="E261" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I261" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T261" s="15">
         <v>0.5</v>
@@ -7818,10 +7818,10 @@
         <v>48</v>
       </c>
       <c r="E262" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I262" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="U262" s="16">
         <v>3</v>
@@ -7838,7 +7838,7 @@
         <v>48</v>
       </c>
       <c r="E263" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O263" s="23">
         <v>3</v>
@@ -7852,7 +7852,7 @@
         <v>44</v>
       </c>
       <c r="E264" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q264" s="12">
         <v>-1</v>
@@ -7872,7 +7872,7 @@
         <v>34</v>
       </c>
       <c r="E265" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="Q265" s="12">
         <v>0.5</v>
@@ -7886,7 +7886,7 @@
         <v>55</v>
       </c>
       <c r="E266" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K266" s="1">
         <v>-5</v>
@@ -7909,7 +7909,7 @@
         <v>55</v>
       </c>
       <c r="E267" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K267" s="1">
         <v>-5</v>
@@ -7926,7 +7926,7 @@
         <v>50</v>
       </c>
       <c r="E268" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.25">
@@ -7934,7 +7934,7 @@
         <v>30</v>
       </c>
       <c r="E269" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O269" s="23">
         <v>3</v>
@@ -7948,7 +7948,7 @@
         <v>50</v>
       </c>
       <c r="E270" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q270" s="12">
         <v>-3</v>
@@ -7965,7 +7965,7 @@
         <v>30</v>
       </c>
       <c r="E271" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S271" s="14">
         <v>1</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
@@ -7991,7 +7991,7 @@
         <v>6</v>
       </c>
       <c r="E272" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O272" s="23">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>10</v>
       </c>
       <c r="E273" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V273" s="17">
         <v>1</v>
@@ -8022,7 +8022,7 @@
         <v>10</v>
       </c>
       <c r="E274" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="V274" s="17">
         <v>1</v>
@@ -8036,7 +8036,7 @@
         <v>12</v>
       </c>
       <c r="E275" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P275" s="11">
         <v>-0.5</v>
@@ -8053,7 +8053,7 @@
         <v>14</v>
       </c>
       <c r="E276" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O276" s="23">
         <v>3</v>
@@ -8064,7 +8064,7 @@
         <v>16</v>
       </c>
       <c r="E277" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P277" s="11">
         <v>1</v>
@@ -8075,7 +8075,7 @@
         <v>20</v>
       </c>
       <c r="E278" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K278" s="1">
         <v>10</v>
@@ -8095,7 +8095,7 @@
         <v>18</v>
       </c>
       <c r="E279" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P279" s="11">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         <v>22</v>
       </c>
       <c r="E280" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P280" s="11">
         <v>0.5</v>
@@ -8129,7 +8129,7 @@
         <v>20</v>
       </c>
       <c r="E281" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P281" s="11">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>22</v>
       </c>
       <c r="E282" t="s">
-        <v>319</v>
+        <v>731</v>
       </c>
       <c r="V282" s="17">
         <v>1</v>
@@ -8157,7 +8157,7 @@
         <v>24</v>
       </c>
       <c r="E283" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="W283" s="18">
         <v>-1</v>
@@ -8171,7 +8171,7 @@
         <v>26</v>
       </c>
       <c r="E284" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O284" s="23">
         <v>0.5</v>
@@ -8188,10 +8188,10 @@
         <v>28</v>
       </c>
       <c r="E285" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I285" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q285" s="12">
         <v>0.5</v>
@@ -8211,7 +8211,7 @@
         <v>30</v>
       </c>
       <c r="E286" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="P286" s="11">
         <v>1</v>
@@ -8222,13 +8222,13 @@
         <v>32</v>
       </c>
       <c r="E287" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F287" t="s">
         <v>37</v>
       </c>
       <c r="H287" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O287" s="23">
         <v>-1</v>
@@ -8242,16 +8242,16 @@
         <v>37</v>
       </c>
       <c r="E288" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F288" t="s">
         <v>37</v>
       </c>
       <c r="H288" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I288" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K288" s="1">
         <v>10</v>
@@ -8271,7 +8271,7 @@
         <v>36</v>
       </c>
       <c r="E289" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P289" s="11">
         <v>1</v>
@@ -8291,7 +8291,7 @@
         <v>37</v>
       </c>
       <c r="E290" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N290" s="1">
         <v>10</v>
@@ -8308,10 +8308,10 @@
         <v>20</v>
       </c>
       <c r="E291" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I291" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O291" s="23">
         <v>-0.5</v>
@@ -8331,7 +8331,7 @@
         <v>25</v>
       </c>
       <c r="E292" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.25">
@@ -8342,7 +8342,7 @@
         <v>25</v>
       </c>
       <c r="E293" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="V293" s="17">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>20</v>
       </c>
       <c r="E294" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Y294" s="21">
         <v>1</v>
@@ -8370,7 +8370,7 @@
         <v>20</v>
       </c>
       <c r="E295" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I295" t="s">
         <v>9</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -8390,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="E296" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O296" s="23">
         <v>0.5</v>
@@ -8413,7 +8413,7 @@
         <v>8</v>
       </c>
       <c r="E297" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="P297" s="11">
         <v>-1</v>
@@ -8427,10 +8427,10 @@
         <v>10</v>
       </c>
       <c r="E298" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I298" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O298" s="23">
         <v>0.5</v>
@@ -8444,7 +8444,7 @@
         <v>14</v>
       </c>
       <c r="E299" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O299" s="23">
         <v>0.5</v>
@@ -8464,7 +8464,7 @@
         <v>12</v>
       </c>
       <c r="E300" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S300" s="14">
         <v>1</v>
@@ -8481,7 +8481,7 @@
         <v>10</v>
       </c>
       <c r="E301" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P301" s="11">
         <v>1</v>
@@ -8498,10 +8498,10 @@
         <v>12</v>
       </c>
       <c r="E302" t="s">
+        <v>339</v>
+      </c>
+      <c r="I302" t="s">
         <v>341</v>
-      </c>
-      <c r="I302" t="s">
-        <v>343</v>
       </c>
       <c r="T302" s="15">
         <v>3</v>
@@ -8521,7 +8521,7 @@
         <v>10</v>
       </c>
       <c r="E303" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P303" s="11">
         <v>1</v>
@@ -8544,7 +8544,7 @@
         <v>10</v>
       </c>
       <c r="E304" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S304" s="14">
         <v>3</v>
@@ -8561,10 +8561,10 @@
         <v>8</v>
       </c>
       <c r="E305" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I305" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O305" s="23">
         <v>1</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -8587,7 +8587,7 @@
         <v>5</v>
       </c>
       <c r="E306" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P306" s="11">
         <v>1</v>
@@ -8601,7 +8601,7 @@
         <v>9</v>
       </c>
       <c r="E307" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P307" s="11">
         <v>0.5</v>
@@ -8621,10 +8621,10 @@
         <v>11</v>
       </c>
       <c r="E308" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G308" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R308" s="13">
         <v>0.5</v>
@@ -8635,7 +8635,7 @@
         <v>12</v>
       </c>
       <c r="E309" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G309" t="s">
         <v>40</v>
@@ -8652,10 +8652,10 @@
         <v>14</v>
       </c>
       <c r="E310" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I310" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q310" s="12">
         <v>1</v>
@@ -8672,7 +8672,7 @@
         <v>16</v>
       </c>
       <c r="E311" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O311" s="23">
         <v>1</v>
@@ -8689,10 +8689,10 @@
         <v>18</v>
       </c>
       <c r="E312" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="I312" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O312" s="23">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>22</v>
       </c>
       <c r="E313" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G313" t="s">
         <v>40</v>
@@ -8726,10 +8726,10 @@
         <v>20</v>
       </c>
       <c r="E314" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I314" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P314" s="11">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>22</v>
       </c>
       <c r="E315" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F315" t="s">
         <v>37</v>
@@ -8769,7 +8769,7 @@
         <v>24</v>
       </c>
       <c r="E316" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P316" s="11">
         <v>0.5</v>
@@ -8792,10 +8792,10 @@
         <v>22</v>
       </c>
       <c r="E317" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I317" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S317" s="14">
         <v>3</v>
@@ -8815,13 +8815,13 @@
         <v>28</v>
       </c>
       <c r="E318" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F318" t="s">
         <v>37</v>
       </c>
       <c r="H318" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K318" s="1">
         <v>-10</v>
@@ -8838,7 +8838,7 @@
         <v>28</v>
       </c>
       <c r="E319" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K319" s="1">
         <v>10</v>
@@ -8864,7 +8864,7 @@
         <v>20</v>
       </c>
       <c r="E320" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O320" s="23">
         <v>3</v>
@@ -8884,7 +8884,7 @@
         <v>28</v>
       </c>
       <c r="E321" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.25">
@@ -8898,7 +8898,7 @@
         <v>15</v>
       </c>
       <c r="E322" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="O322" s="23">
         <v>1</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -8921,7 +8921,7 @@
         <v>5</v>
       </c>
       <c r="E323" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.25">
@@ -8932,7 +8932,7 @@
         <v>9</v>
       </c>
       <c r="E324" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S324" s="14">
         <v>1</v>
@@ -8949,10 +8949,10 @@
         <v>11</v>
       </c>
       <c r="E325" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G325" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U325" s="16">
         <v>0.5</v>
@@ -8966,10 +8966,10 @@
         <v>13</v>
       </c>
       <c r="E326" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G326" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P326" s="11">
         <v>1</v>
@@ -8983,10 +8983,10 @@
         <v>15</v>
       </c>
       <c r="E327" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G327" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O327" s="23">
         <v>0.5</v>
@@ -9012,7 +9012,7 @@
         <v>17</v>
       </c>
       <c r="E328" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O328" s="23">
         <v>1</v>
@@ -9026,7 +9026,7 @@
         <v>20</v>
       </c>
       <c r="E329" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="O329" s="23">
         <v>0.5</v>
@@ -9040,7 +9040,7 @@
         <v>24</v>
       </c>
       <c r="E330" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="O330" s="23">
         <v>1</v>
@@ -9054,10 +9054,10 @@
         <v>26</v>
       </c>
       <c r="E331" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I331" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O331" s="23">
         <v>2</v>
@@ -9083,10 +9083,10 @@
         <v>19</v>
       </c>
       <c r="E332" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I332" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="S332" s="14">
         <v>3</v>
@@ -9103,7 +9103,7 @@
         <v>15</v>
       </c>
       <c r="E333" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P333" s="11">
         <v>1</v>
@@ -9126,10 +9126,10 @@
         <v>17</v>
       </c>
       <c r="E334" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I334" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P334" s="11">
         <v>1</v>
@@ -9143,7 +9143,7 @@
         <v>17</v>
       </c>
       <c r="E335" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.25">
@@ -9151,10 +9151,10 @@
         <v>15</v>
       </c>
       <c r="E336" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I336" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O336" s="23">
         <v>0.5</v>
@@ -9168,10 +9168,10 @@
         <v>12</v>
       </c>
       <c r="E337" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I337" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S337" s="14">
         <v>2</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B338" t="s">
         <v>7</v>
@@ -9191,10 +9191,10 @@
         <v>7</v>
       </c>
       <c r="E338" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K338" s="1">
         <v>5</v>
@@ -9217,16 +9217,16 @@
         <v>11</v>
       </c>
       <c r="E339" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F339" t="s">
         <v>37</v>
       </c>
       <c r="G339" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H339" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U339" s="16">
         <v>1</v>
@@ -9243,7 +9243,7 @@
         <v>12</v>
       </c>
       <c r="E340" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="U340" s="16">
         <v>-0.5</v>
@@ -9257,7 +9257,7 @@
         <v>13</v>
       </c>
       <c r="E341" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.25">
@@ -9271,7 +9271,7 @@
         <v>13</v>
       </c>
       <c r="E342" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Y342" s="21">
         <v>2</v>
@@ -9288,7 +9288,7 @@
         <v>10</v>
       </c>
       <c r="E343" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I343" t="s">
         <v>9</v>
@@ -9305,7 +9305,7 @@
         <v>10</v>
       </c>
       <c r="E344" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O344" s="23">
         <v>1</v>
@@ -9319,7 +9319,7 @@
         <v>10</v>
       </c>
       <c r="E345" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.25">
@@ -9330,12 +9330,12 @@
         <v>10</v>
       </c>
       <c r="E346" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -9347,7 +9347,7 @@
         <v>5</v>
       </c>
       <c r="E347" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="W347" s="18">
         <v>0.5</v>
@@ -9367,7 +9367,7 @@
         <v>7</v>
       </c>
       <c r="E348" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="O348" s="23">
         <v>1</v>
@@ -9384,7 +9384,7 @@
         <v>10</v>
       </c>
       <c r="E349" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="O349" s="23">
         <v>1</v>
@@ -9410,7 +9410,7 @@
         <v>14</v>
       </c>
       <c r="E350" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.25">
@@ -9421,7 +9421,7 @@
         <v>16</v>
       </c>
       <c r="E351" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="U351" s="16">
         <v>1</v>
@@ -9435,7 +9435,7 @@
         <v>18</v>
       </c>
       <c r="E352" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q352" s="12">
         <v>0.5</v>
@@ -9452,7 +9452,7 @@
         <v>20</v>
       </c>
       <c r="E353" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="X353" s="19">
         <v>5</v>
@@ -9466,7 +9466,7 @@
         <v>18</v>
       </c>
       <c r="E354" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G354" t="s">
         <v>40</v>
@@ -9480,7 +9480,7 @@
         <v>24</v>
       </c>
       <c r="E355" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="S355" s="14">
         <v>3</v>
@@ -9497,7 +9497,7 @@
         <v>22</v>
       </c>
       <c r="E356" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P356" s="11">
         <v>1</v>
@@ -9520,7 +9520,7 @@
         <v>24</v>
       </c>
       <c r="E357" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O357" s="23">
         <v>1</v>
@@ -9555,7 +9555,7 @@
         <v>26</v>
       </c>
       <c r="E358" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M358" s="1">
         <v>-5</v>
@@ -9578,7 +9578,7 @@
         <v>26</v>
       </c>
       <c r="E359" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L359" s="1">
         <v>5</v>
@@ -9601,7 +9601,7 @@
         <v>20</v>
       </c>
       <c r="E360" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O360" s="23">
         <v>1</v>
@@ -9615,10 +9615,10 @@
         <v>10</v>
       </c>
       <c r="E361" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I361" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O361" s="23">
         <v>1</v>
@@ -9647,10 +9647,10 @@
         <v>20</v>
       </c>
       <c r="E362" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I362" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P362" s="11">
         <v>0.5</v>
@@ -9667,10 +9667,10 @@
         <v>20</v>
       </c>
       <c r="E363" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I363" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O363" s="23">
         <v>-1</v>
@@ -9684,10 +9684,10 @@
         <v>20</v>
       </c>
       <c r="E364" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I364" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P364" s="11">
         <v>0.25</v>
@@ -9707,7 +9707,7 @@
         <v>20</v>
       </c>
       <c r="E365" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O365" s="23">
         <v>0.5</v>
@@ -9724,7 +9724,7 @@
         <v>10</v>
       </c>
       <c r="E366" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O366" s="23">
         <v>1</v>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B367" t="s">
         <v>7</v>
@@ -9756,16 +9756,16 @@
         <v>5</v>
       </c>
       <c r="E367" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F367" t="s">
         <v>37</v>
       </c>
       <c r="H367" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I367" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="O367" s="23">
         <v>1</v>
@@ -9779,10 +9779,10 @@
         <v>10</v>
       </c>
       <c r="E368" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G368" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S368" s="14">
         <v>3</v>
@@ -9796,7 +9796,7 @@
         <v>12</v>
       </c>
       <c r="E369" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="S369" s="14">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>14</v>
       </c>
       <c r="E370" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P370" s="11">
         <v>0.5</v>
@@ -9836,7 +9836,7 @@
         <v>14</v>
       </c>
       <c r="E371" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P371" s="11">
         <v>-0.5</v>
@@ -9859,10 +9859,10 @@
         <v>16</v>
       </c>
       <c r="E372" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H372" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O372" s="23">
         <v>-1</v>
@@ -9885,7 +9885,7 @@
         <v>14</v>
       </c>
       <c r="E373" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O373" s="23">
         <v>-1</v>
@@ -9911,10 +9911,10 @@
         <v>18</v>
       </c>
       <c r="E374" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I374" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S374" s="14">
         <v>3</v>
@@ -9925,10 +9925,10 @@
         <v>17</v>
       </c>
       <c r="E375" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I375" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="T375" s="15">
         <v>1</v>
@@ -9945,10 +9945,10 @@
         <v>16</v>
       </c>
       <c r="E376" t="s">
+        <v>415</v>
+      </c>
+      <c r="I376" t="s">
         <v>417</v>
-      </c>
-      <c r="I376" t="s">
-        <v>419</v>
       </c>
       <c r="O376" s="23">
         <v>1</v>
@@ -9965,10 +9965,10 @@
         <v>14</v>
       </c>
       <c r="E377" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I377" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S377" s="14">
         <v>1</v>
@@ -9982,7 +9982,7 @@
         <v>18</v>
       </c>
       <c r="E378" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O378" s="23">
         <v>3</v>
@@ -10002,10 +10002,10 @@
         <v>16</v>
       </c>
       <c r="E379" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I379" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S379" s="14">
         <v>4</v>
@@ -10022,10 +10022,10 @@
         <v>14</v>
       </c>
       <c r="E380" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I380" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O380" s="23">
         <v>0.5</v>
@@ -10048,10 +10048,10 @@
         <v>14</v>
       </c>
       <c r="E381" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I381" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O381" s="23">
         <v>2</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -10074,7 +10074,7 @@
         <v>5</v>
       </c>
       <c r="E382" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P382" s="11">
         <v>0.5</v>
@@ -10097,7 +10097,7 @@
         <v>8</v>
       </c>
       <c r="E383" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O383" s="23">
         <v>-0.5</v>
@@ -10117,7 +10117,7 @@
         <v>10</v>
       </c>
       <c r="E384" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="S384" s="14">
         <v>1</v>
@@ -10131,7 +10131,7 @@
         <v>13</v>
       </c>
       <c r="E385" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="O385" s="23">
         <v>1</v>
@@ -10148,7 +10148,7 @@
         <v>17</v>
       </c>
       <c r="E386" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="O386" s="23">
         <v>1</v>
@@ -10168,13 +10168,13 @@
         <v>20</v>
       </c>
       <c r="E387" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F387" t="s">
         <v>37</v>
       </c>
       <c r="H387" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O387" s="23">
         <v>-0.5</v>
@@ -10191,10 +10191,10 @@
         <v>22</v>
       </c>
       <c r="E388" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I388" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O388" s="23">
         <v>1</v>
@@ -10214,7 +10214,7 @@
         <v>24</v>
       </c>
       <c r="E389" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P389" s="11">
         <v>0.5</v>
@@ -10234,10 +10234,10 @@
         <v>24</v>
       </c>
       <c r="E390" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G390" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P390" s="11">
         <v>-0.5</v>
@@ -10251,10 +10251,10 @@
         <v>26</v>
       </c>
       <c r="E391" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G391" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S391" s="14">
         <v>1</v>
@@ -10271,7 +10271,7 @@
         <v>28</v>
       </c>
       <c r="E392" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="P392" s="11">
         <v>-0.5</v>
@@ -10291,7 +10291,7 @@
         <v>24</v>
       </c>
       <c r="E393" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="P393" s="11">
         <v>1</v>
@@ -10302,7 +10302,7 @@
         <v>27</v>
       </c>
       <c r="E394" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T394" s="15">
         <v>5</v>
@@ -10313,10 +10313,10 @@
         <v>30</v>
       </c>
       <c r="E395" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I395" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O395" s="23">
         <v>1</v>
@@ -10330,10 +10330,10 @@
         <v>33</v>
       </c>
       <c r="E396" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I396" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P396" s="11">
         <v>2</v>
@@ -10353,10 +10353,10 @@
         <v>30</v>
       </c>
       <c r="E397" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G397" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="398" spans="2:25" x14ac:dyDescent="0.25">
@@ -10364,7 +10364,7 @@
         <v>33</v>
       </c>
       <c r="E398" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="O398" s="23">
         <v>1</v>
@@ -10384,7 +10384,7 @@
         <v>32</v>
       </c>
       <c r="E399" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T399" s="15">
         <v>1</v>
@@ -10398,7 +10398,7 @@
         <v>26</v>
       </c>
       <c r="E400" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Y400" s="21">
         <v>2</v>
@@ -10409,10 +10409,10 @@
         <v>20</v>
       </c>
       <c r="E401" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I401" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y401" s="21">
         <v>0.5</v>
@@ -10423,7 +10423,7 @@
         <v>14</v>
       </c>
       <c r="E402" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P402" s="11">
         <v>0.5</v>
@@ -10440,10 +10440,10 @@
         <v>29</v>
       </c>
       <c r="E403" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I403" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S403" s="14">
         <v>1</v>
@@ -10454,7 +10454,7 @@
         <v>23</v>
       </c>
       <c r="E404" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="P404" s="11">
         <v>-0.5</v>
@@ -10471,7 +10471,7 @@
         <v>17</v>
       </c>
       <c r="E405" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="S405" s="14">
         <v>1</v>
@@ -10482,7 +10482,7 @@
         <v>11</v>
       </c>
       <c r="E406" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Y406" s="21">
         <v>-0.5</v>
@@ -10496,7 +10496,7 @@
         <v>29</v>
       </c>
       <c r="E407" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O407" s="23">
         <v>0.5</v>
@@ -10510,7 +10510,7 @@
         <v>23</v>
       </c>
       <c r="E408" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P408" s="11">
         <v>1</v>
@@ -10521,7 +10521,7 @@
         <v>17</v>
       </c>
       <c r="E409" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O409" s="23">
         <v>3</v>
@@ -10535,7 +10535,7 @@
         <v>11</v>
       </c>
       <c r="E410" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O410" s="23">
         <v>1</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -10558,7 +10558,7 @@
         <v>5</v>
       </c>
       <c r="E411" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="S411" s="14">
         <v>-1</v>
@@ -10572,7 +10572,7 @@
         <v>8</v>
       </c>
       <c r="E412" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S412" s="14">
         <v>1</v>
@@ -10589,10 +10589,10 @@
         <v>10</v>
       </c>
       <c r="E413" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I413" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O413" s="23">
         <v>1</v>
@@ -10615,13 +10615,13 @@
         <v>25</v>
       </c>
       <c r="E414" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G414" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I414" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L414" s="1">
         <v>10</v>
@@ -10638,10 +10638,10 @@
         <v>14</v>
       </c>
       <c r="E415" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I415" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S415" s="14">
         <v>1</v>
@@ -10655,10 +10655,10 @@
         <v>10</v>
       </c>
       <c r="E416" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I416" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="S416" s="14">
         <v>-1</v>
@@ -10669,7 +10669,7 @@
         <v>12</v>
       </c>
       <c r="E417" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O417" s="23">
         <v>1</v>
@@ -10683,7 +10683,7 @@
         <v>14</v>
       </c>
       <c r="E418" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.25">
@@ -10697,7 +10697,7 @@
         <v>25</v>
       </c>
       <c r="E419" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="I419" t="s">
         <v>9</v>
@@ -10717,7 +10717,7 @@
         <v>25</v>
       </c>
       <c r="E420" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L420" s="1">
         <v>10</v>
@@ -10734,7 +10734,7 @@
         <v>14</v>
       </c>
       <c r="E421" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.25">
@@ -10742,10 +10742,10 @@
         <v>16</v>
       </c>
       <c r="E422" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I422" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O422" s="23">
         <v>-1</v>
@@ -10774,7 +10774,7 @@
         <v>20</v>
       </c>
       <c r="E423" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="S423" s="14">
         <v>1</v>
@@ -10788,7 +10788,7 @@
         <v>18</v>
       </c>
       <c r="E424" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.25">
@@ -10796,10 +10796,10 @@
         <v>16</v>
       </c>
       <c r="E425" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="I425" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.25">
@@ -10807,7 +10807,7 @@
         <v>15</v>
       </c>
       <c r="E426" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.25">
@@ -10815,7 +10815,7 @@
         <v>14</v>
       </c>
       <c r="E427" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.25">
@@ -10823,10 +10823,10 @@
         <v>10</v>
       </c>
       <c r="E428" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I428" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S428" s="14">
         <v>-1</v>
@@ -10849,7 +10849,7 @@
         <v>16</v>
       </c>
       <c r="E429" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="S429" s="14">
         <v>0.5</v>
@@ -10860,7 +10860,7 @@
         <v>12</v>
       </c>
       <c r="E430" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O430" s="23">
         <v>1</v>
@@ -10874,7 +10874,7 @@
         <v>14</v>
       </c>
       <c r="E431" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O431" s="23">
         <v>0.5</v>
@@ -10900,7 +10900,7 @@
         <v>6</v>
       </c>
       <c r="E432" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Y432" s="21">
         <v>0.5</v>
@@ -10917,7 +10917,7 @@
         <v>8</v>
       </c>
       <c r="E433" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="U433" s="16">
         <v>0.5</v>
@@ -10931,10 +10931,10 @@
         <v>10</v>
       </c>
       <c r="E434" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I434" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U434" s="16">
         <v>0.5</v>
@@ -10951,7 +10951,7 @@
         <v>12</v>
       </c>
       <c r="E435" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="R435" s="13">
         <v>-0.5</v>
@@ -10968,10 +10968,10 @@
         <v>12</v>
       </c>
       <c r="E436" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I436" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P436" s="11">
         <v>-0.5</v>
@@ -10988,7 +10988,7 @@
         <v>14</v>
       </c>
       <c r="E437" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O437" s="23">
         <v>0.5</v>
@@ -11005,7 +11005,7 @@
         <v>16</v>
       </c>
       <c r="E438" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="U438" s="16">
         <v>0.5</v>
@@ -11016,7 +11016,7 @@
         <v>18</v>
       </c>
       <c r="E439" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V439" s="17">
         <v>0.5</v>
@@ -11027,7 +11027,7 @@
         <v>20</v>
       </c>
       <c r="E440" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O440" s="23">
         <v>0.5</v>
@@ -11044,10 +11044,10 @@
         <v>22</v>
       </c>
       <c r="E441" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G441" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O441" s="23">
         <v>1</v>
@@ -11058,7 +11058,7 @@
         <v>24</v>
       </c>
       <c r="E442" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O442" s="23">
         <v>2</v>
@@ -11075,13 +11075,13 @@
         <v>26</v>
       </c>
       <c r="E443" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H443" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I443" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V443" s="17">
         <v>5</v>
@@ -11095,7 +11095,7 @@
         <v>24</v>
       </c>
       <c r="E444" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O444" s="23">
         <v>-1</v>
@@ -11115,7 +11115,7 @@
         <v>22</v>
       </c>
       <c r="E445" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O445" s="23">
         <v>1</v>
@@ -11138,7 +11138,7 @@
         <v>22</v>
       </c>
       <c r="E446" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="447" spans="2:25" x14ac:dyDescent="0.25">
@@ -11146,7 +11146,7 @@
         <v>17</v>
       </c>
       <c r="E447" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O447" s="23">
         <v>0.5</v>
@@ -11160,7 +11160,7 @@
         <v>12</v>
       </c>
       <c r="E448" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O448" s="23">
         <v>1</v>
@@ -11186,7 +11186,7 @@
         <v>15</v>
       </c>
       <c r="E449" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O449" s="23">
         <v>1</v>
@@ -11203,7 +11203,7 @@
         <v>14</v>
       </c>
       <c r="E450" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Y450" s="21">
         <v>0.5</v>
@@ -11211,7 +11211,7 @@
     </row>
     <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B451" t="s">
         <v>7</v>
@@ -11223,10 +11223,10 @@
         <v>5</v>
       </c>
       <c r="E451" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="G451" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O451" s="23">
         <v>0.5</v>
@@ -11246,7 +11246,7 @@
         <v>8</v>
       </c>
       <c r="E452" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="453" spans="1:25" x14ac:dyDescent="0.25">
@@ -11254,7 +11254,7 @@
         <v>9</v>
       </c>
       <c r="E453" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="454" spans="1:25" x14ac:dyDescent="0.25">
@@ -11268,10 +11268,10 @@
         <v>10</v>
       </c>
       <c r="E454" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G454" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S454" s="14">
         <v>3</v>
@@ -11282,7 +11282,7 @@
         <v>14</v>
       </c>
       <c r="E455" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="S455" s="14">
         <v>1</v>
@@ -11296,7 +11296,7 @@
         <v>16</v>
       </c>
       <c r="E456" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="O456" s="23">
         <v>1</v>
@@ -11313,7 +11313,7 @@
         <v>20</v>
       </c>
       <c r="E457" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="P457" s="11">
         <v>-1</v>
@@ -11339,7 +11339,7 @@
         <v>18</v>
       </c>
       <c r="E458" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O458" s="23">
         <v>1</v>
@@ -11350,7 +11350,7 @@
         <v>16</v>
       </c>
       <c r="E459" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O459" s="23">
         <v>2</v>
@@ -11364,7 +11364,7 @@
         <v>22</v>
       </c>
       <c r="E460" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="S460" s="14">
         <v>1</v>
@@ -11375,7 +11375,7 @@
         <v>20</v>
       </c>
       <c r="E461" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="S461" s="14">
         <v>1</v>
@@ -11386,7 +11386,7 @@
         <v>18</v>
       </c>
       <c r="E462" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="S462" s="14">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>20</v>
       </c>
       <c r="E463" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="464" spans="1:25" x14ac:dyDescent="0.25">
@@ -11411,7 +11411,7 @@
         <v>20</v>
       </c>
       <c r="E464" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="V464" s="17">
         <v>0.5</v>
@@ -11425,7 +11425,7 @@
         <v>20</v>
       </c>
       <c r="E465" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O465" s="23">
         <v>1</v>
@@ -11436,7 +11436,7 @@
         <v>20</v>
       </c>
       <c r="E466" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O466" s="23">
         <v>3</v>
@@ -11453,10 +11453,10 @@
         <v>20</v>
       </c>
       <c r="E467" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I467" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="468" spans="1:23" x14ac:dyDescent="0.25">
@@ -11467,10 +11467,10 @@
         <v>22</v>
       </c>
       <c r="E468" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G468" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S468" s="14">
         <v>1</v>
@@ -11481,10 +11481,10 @@
         <v>24</v>
       </c>
       <c r="E469" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G469" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S469" s="14">
         <v>1</v>
@@ -11495,10 +11495,10 @@
         <v>26</v>
       </c>
       <c r="E470" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G470" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S470" s="14">
         <v>1</v>
@@ -11509,7 +11509,7 @@
         <v>28</v>
       </c>
       <c r="E471" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="S471" s="14">
         <v>1</v>
@@ -11526,7 +11526,7 @@
         <v>30</v>
       </c>
       <c r="E472" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O472" s="23">
         <v>2</v>
@@ -11540,7 +11540,7 @@
         <v>20</v>
       </c>
       <c r="E473" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O473" s="23">
         <v>0.5</v>
@@ -11554,10 +11554,10 @@
         <v>15</v>
       </c>
       <c r="E474" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I474" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V474" s="17">
         <v>0.5</v>
@@ -11574,10 +11574,10 @@
         <v>24</v>
       </c>
       <c r="E475" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I475" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="S475" s="14">
         <v>3</v>
@@ -11588,7 +11588,7 @@
         <v>17</v>
       </c>
       <c r="E476" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="O476" s="23">
         <v>1</v>
@@ -11605,7 +11605,7 @@
         <v>24</v>
       </c>
       <c r="E477" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="S477" s="14">
         <v>-1</v>
@@ -11616,7 +11616,7 @@
         <v>17</v>
       </c>
       <c r="E478" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="T478" s="15">
         <v>1</v>
@@ -11624,7 +11624,7 @@
     </row>
     <row r="479" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B479" t="s">
         <v>7</v>
@@ -11636,7 +11636,7 @@
         <v>5</v>
       </c>
       <c r="E479" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="S479" s="14">
         <v>0.5</v>
@@ -11653,7 +11653,7 @@
         <v>9</v>
       </c>
       <c r="E480" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="S480" s="14">
         <v>0.5</v>
@@ -11664,7 +11664,7 @@
         <v>12</v>
       </c>
       <c r="E481" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="S481" s="14">
         <v>0.5</v>
@@ -11675,7 +11675,7 @@
         <v>15</v>
       </c>
       <c r="E482" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="S482" s="14">
         <v>0.5</v>
@@ -11692,7 +11692,7 @@
         <v>18</v>
       </c>
       <c r="E483" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="S483" s="14">
         <v>0.5</v>
@@ -11703,7 +11703,7 @@
         <v>21</v>
       </c>
       <c r="E484" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S484" s="14">
         <v>0.5</v>
@@ -11714,7 +11714,7 @@
         <v>24</v>
       </c>
       <c r="E485" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S485" s="14">
         <v>0.5</v>
@@ -11725,7 +11725,7 @@
         <v>27</v>
       </c>
       <c r="E486" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="487" spans="2:19" x14ac:dyDescent="0.25">
@@ -11733,7 +11733,7 @@
         <v>30</v>
       </c>
       <c r="E487" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J487">
         <v>6</v>
@@ -11750,7 +11750,7 @@
         <v>30</v>
       </c>
       <c r="E488" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="489" spans="2:19" x14ac:dyDescent="0.25">
@@ -11758,10 +11758,10 @@
         <v>27</v>
       </c>
       <c r="E489" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="I489" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S489" s="14">
         <v>0.5</v>
@@ -11772,7 +11772,7 @@
         <v>24</v>
       </c>
       <c r="E490" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S490" s="14">
         <v>0.5</v>
@@ -11783,7 +11783,7 @@
         <v>21</v>
       </c>
       <c r="E491" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S491" s="14">
         <v>0.5</v>
@@ -11794,7 +11794,7 @@
         <v>18</v>
       </c>
       <c r="E492" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="S492" s="14">
         <v>0.5</v>
@@ -11805,7 +11805,7 @@
         <v>15</v>
       </c>
       <c r="E493" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="S493" s="14">
         <v>0.5</v>
@@ -11816,7 +11816,7 @@
         <v>12</v>
       </c>
       <c r="E494" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="S494" s="14">
         <v>0.5</v>
@@ -11833,7 +11833,7 @@
         <v>27</v>
       </c>
       <c r="E495" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="S495" s="14">
         <v>0.5</v>
@@ -11844,7 +11844,7 @@
         <v>25</v>
       </c>
       <c r="E496" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J496">
         <v>11</v>
@@ -11858,7 +11858,7 @@
         <v>20</v>
       </c>
       <c r="E497" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="S497" s="14">
         <v>0.5</v>
@@ -11869,7 +11869,7 @@
         <v>17</v>
       </c>
       <c r="E498" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S498" s="14">
         <v>0.5</v>
@@ -11880,7 +11880,7 @@
         <v>14</v>
       </c>
       <c r="E499" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="S499" s="14">
         <v>0.5</v>
@@ -11894,7 +11894,7 @@
         <v>30</v>
       </c>
       <c r="E500" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N500" s="1">
         <v>10</v>
@@ -11905,7 +11905,7 @@
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B501" t="s">
         <v>7</v>
@@ -11917,7 +11917,7 @@
         <v>5</v>
       </c>
       <c r="E501" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="S501" s="14">
         <v>2</v>
@@ -11934,7 +11934,7 @@
         <v>5</v>
       </c>
       <c r="E502" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S502" s="14">
         <v>2</v>
@@ -11951,7 +11951,7 @@
         <v>8</v>
       </c>
       <c r="E503" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="S503" s="14">
         <v>1</v>
@@ -11965,7 +11965,7 @@
         <v>10</v>
       </c>
       <c r="E504" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="O504" s="23">
         <v>-0.5</v>
@@ -11991,10 +11991,10 @@
         <v>12</v>
       </c>
       <c r="E505" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G505" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O505" s="23">
         <v>1</v>
@@ -12008,7 +12008,7 @@
         <v>14</v>
       </c>
       <c r="E506" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="T506" s="15">
         <v>0.5</v>
@@ -12022,13 +12022,13 @@
         <v>18</v>
       </c>
       <c r="E507" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F507" t="s">
         <v>37</v>
       </c>
       <c r="H507" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q507" s="12">
         <v>2</v>
@@ -12045,7 +12045,7 @@
         <v>20</v>
       </c>
       <c r="E508" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="Q508" s="12">
         <v>-0.5</v>
@@ -12068,7 +12068,7 @@
         <v>18</v>
       </c>
       <c r="E509" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="X509" s="19">
         <v>3</v>
@@ -12079,7 +12079,7 @@
         <v>21</v>
       </c>
       <c r="E510" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="X510" s="19">
         <v>5</v>
@@ -12090,7 +12090,7 @@
         <v>24</v>
       </c>
       <c r="E511" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="V511" s="17">
         <v>3</v>
@@ -12107,7 +12107,7 @@
         <v>24</v>
       </c>
       <c r="E512" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N512" s="1">
         <v>-10</v>
@@ -12121,13 +12121,13 @@
         <v>24</v>
       </c>
       <c r="E513" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F513" t="s">
         <v>37</v>
       </c>
       <c r="H513" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N513" s="1">
         <v>10</v>
@@ -12147,7 +12147,7 @@
         <v>22</v>
       </c>
       <c r="E514" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="U514" s="16">
         <v>1</v>
@@ -12161,7 +12161,7 @@
         <v>20</v>
       </c>
       <c r="E515" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="W515" s="18">
         <v>1</v>
@@ -12175,7 +12175,7 @@
         <v>18</v>
       </c>
       <c r="E516" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q516" s="12">
         <v>-1</v>
@@ -12195,7 +12195,7 @@
         <v>16</v>
       </c>
       <c r="E517" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="R517" s="13">
         <v>3.5</v>
@@ -12212,7 +12212,7 @@
         <v>10</v>
       </c>
       <c r="E518" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="Q518" s="12">
         <v>-0.5</v>
@@ -12232,7 +12232,7 @@
         <v>20</v>
       </c>
       <c r="E519" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="S519" s="14">
         <v>1</v>
@@ -12246,7 +12246,7 @@
         <v>15</v>
       </c>
       <c r="E520" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="O520" s="23">
         <v>1</v>
@@ -12263,7 +12263,7 @@
         <v>20</v>
       </c>
       <c r="E521" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="T521" s="15">
         <v>0.1</v>
@@ -12274,7 +12274,7 @@
         <v>15</v>
       </c>
       <c r="E522" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="T522" s="15">
         <v>0.3</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="523" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B523" t="s">
         <v>7</v>
@@ -12294,7 +12294,7 @@
         <v>5</v>
       </c>
       <c r="E523" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O523" s="23">
         <v>0.5</v>
@@ -12308,7 +12308,7 @@
         <v>10</v>
       </c>
       <c r="E524" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O524" s="23">
         <v>0.5</v>
@@ -12325,10 +12325,10 @@
         <v>12</v>
       </c>
       <c r="E525" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G525" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="526" spans="1:25" x14ac:dyDescent="0.25">
@@ -12336,7 +12336,7 @@
         <v>15</v>
       </c>
       <c r="E526" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="527" spans="1:25" x14ac:dyDescent="0.25">
@@ -12347,7 +12347,7 @@
         <v>18</v>
       </c>
       <c r="E527" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="528" spans="1:25" x14ac:dyDescent="0.25">
@@ -12355,7 +12355,7 @@
         <v>21</v>
       </c>
       <c r="E528" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="O528" s="23">
         <v>0.2</v>
@@ -12369,7 +12369,7 @@
         <v>22</v>
       </c>
       <c r="E529" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="530" spans="2:23" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
         <v>24</v>
       </c>
       <c r="E530" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="S530" s="14">
         <v>1</v>
@@ -12391,10 +12391,10 @@
         <v>20</v>
       </c>
       <c r="E531" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G531" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="532" spans="2:23" x14ac:dyDescent="0.25">
@@ -12402,7 +12402,7 @@
         <v>22</v>
       </c>
       <c r="E532" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="S532" s="14">
         <v>5</v>
@@ -12413,7 +12413,7 @@
         <v>24</v>
       </c>
       <c r="E533" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="S533" s="14">
         <v>1</v>
@@ -12427,7 +12427,7 @@
         <v>26</v>
       </c>
       <c r="E534" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O534" s="23">
         <v>-0.2</v>
@@ -12450,10 +12450,10 @@
         <v>26</v>
       </c>
       <c r="E535" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I535" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O535" s="23">
         <v>0.5</v>
@@ -12464,10 +12464,10 @@
         <v>28</v>
       </c>
       <c r="E536" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I536" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O536" s="23">
         <v>1</v>
@@ -12478,10 +12478,10 @@
         <v>30</v>
       </c>
       <c r="E537" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I537" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="538" spans="2:23" x14ac:dyDescent="0.25">
@@ -12489,7 +12489,7 @@
         <v>33</v>
       </c>
       <c r="E538" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="539" spans="2:23" x14ac:dyDescent="0.25">
@@ -12500,7 +12500,7 @@
         <v>30</v>
       </c>
       <c r="E539" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="P539" s="11">
         <v>-0.5</v>
@@ -12514,7 +12514,7 @@
         <v>31</v>
       </c>
       <c r="E540" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O540" s="23">
         <v>0.5</v>
@@ -12534,10 +12534,10 @@
         <v>28</v>
       </c>
       <c r="E541" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I541" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S541" s="14">
         <v>3</v>
@@ -12551,10 +12551,10 @@
         <v>25</v>
       </c>
       <c r="E542" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="I542" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O542" s="23">
         <v>0.5</v>
@@ -12568,10 +12568,10 @@
         <v>21</v>
       </c>
       <c r="E543" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I543" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="544" spans="2:23" x14ac:dyDescent="0.25">
@@ -12579,7 +12579,7 @@
         <v>13</v>
       </c>
       <c r="E544" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
         <v>18</v>
       </c>
       <c r="E545" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="546" spans="1:25" x14ac:dyDescent="0.25">
@@ -12604,7 +12604,7 @@
         <v>18</v>
       </c>
       <c r="E546" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Q546" s="12">
         <v>1</v>
@@ -12615,7 +12615,7 @@
         <v>18</v>
       </c>
       <c r="E547" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="O547" s="23">
         <v>0.3</v>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="548" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B548" t="s">
         <v>7</v>
@@ -12641,7 +12641,7 @@
         <v>5</v>
       </c>
       <c r="E548" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="U548" s="16">
         <v>0.5</v>
@@ -12658,7 +12658,7 @@
         <v>7</v>
       </c>
       <c r="E549" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="U549" s="16">
         <v>-0.5</v>
@@ -12669,7 +12669,7 @@
         <v>7</v>
       </c>
       <c r="E550" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="O550" s="23">
         <v>1</v>
@@ -12689,7 +12689,7 @@
         <v>10</v>
       </c>
       <c r="E551" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O551" s="23">
         <v>-0.5</v>
@@ -12706,7 +12706,7 @@
         <v>13</v>
       </c>
       <c r="E552" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="553" spans="1:25" x14ac:dyDescent="0.25">
@@ -12714,7 +12714,7 @@
         <v>13</v>
       </c>
       <c r="E553" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="O553" s="23">
         <v>0.1</v>
@@ -12734,10 +12734,10 @@
         <v>15</v>
       </c>
       <c r="E554" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I554" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="555" spans="1:25" x14ac:dyDescent="0.25">
@@ -12748,7 +12748,7 @@
         <v>19</v>
       </c>
       <c r="E555" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="X555" s="19">
         <v>0.5</v>
@@ -12762,7 +12762,7 @@
         <v>23</v>
       </c>
       <c r="E556" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="S556" s="14">
         <v>1</v>
@@ -12776,7 +12776,7 @@
         <v>27</v>
       </c>
       <c r="E557" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.25">
@@ -12790,7 +12790,7 @@
         <v>18</v>
       </c>
       <c r="E558" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O558" s="23">
         <v>1</v>
@@ -12801,7 +12801,7 @@
         <v>16</v>
       </c>
       <c r="E559" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Y559" s="21">
         <v>0.1</v>
@@ -12812,7 +12812,7 @@
         <v>14</v>
       </c>
       <c r="E560" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="U560" s="16">
         <v>0.5</v>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="561" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B561" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C561" t="s">
         <v>8</v>
@@ -12829,10 +12829,10 @@
         <v>18</v>
       </c>
       <c r="E561" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I561" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="562" spans="1:25" x14ac:dyDescent="0.25">
@@ -12840,10 +12840,10 @@
         <v>12</v>
       </c>
       <c r="E562" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I562" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S562" s="14">
         <v>1</v>
@@ -12860,7 +12860,7 @@
         <v>17</v>
       </c>
       <c r="E563" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="S563" s="14">
         <v>1</v>
@@ -12871,10 +12871,10 @@
         <v>11</v>
       </c>
       <c r="E564" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I564" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S564" s="14">
         <v>1</v>
@@ -12882,7 +12882,7 @@
     </row>
     <row r="565" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B565" t="s">
         <v>7</v>
@@ -12894,7 +12894,7 @@
         <v>5</v>
       </c>
       <c r="E565" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="566" spans="1:25" x14ac:dyDescent="0.25">
@@ -12905,7 +12905,7 @@
         <v>9</v>
       </c>
       <c r="E566" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="567" spans="1:25" x14ac:dyDescent="0.25">
@@ -12919,7 +12919,7 @@
         <v>10</v>
       </c>
       <c r="E567" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="S567" s="14">
         <v>1</v>
@@ -12930,7 +12930,7 @@
         <v>12</v>
       </c>
       <c r="E568" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="U568" s="16">
         <v>-1</v>
@@ -12944,7 +12944,7 @@
         <v>14</v>
       </c>
       <c r="E569" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="P569" s="11">
         <v>-2</v>
@@ -12958,7 +12958,7 @@
         <v>16</v>
       </c>
       <c r="E570" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="Y570" s="21">
         <v>1</v>
@@ -12969,7 +12969,7 @@
         <v>17</v>
       </c>
       <c r="E571" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="V571" s="17">
         <v>0.5</v>
@@ -12989,7 +12989,7 @@
         <v>21</v>
       </c>
       <c r="E572" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="V572" s="17">
         <v>-0.5</v>
@@ -13003,10 +13003,10 @@
         <v>24</v>
       </c>
       <c r="E573" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G573" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L573" s="1">
         <v>10</v>
@@ -13023,10 +13023,10 @@
         <v>25</v>
       </c>
       <c r="E574" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G574" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L574" s="1">
         <v>10</v>
@@ -13040,7 +13040,7 @@
         <v>26</v>
       </c>
       <c r="E575" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L575" s="1">
         <v>10</v>
@@ -13060,7 +13060,7 @@
         <v>26</v>
       </c>
       <c r="E576" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="577" spans="1:25" x14ac:dyDescent="0.25">
@@ -13068,7 +13068,7 @@
         <v>25</v>
       </c>
       <c r="E577" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="578" spans="1:25" x14ac:dyDescent="0.25">
@@ -13076,7 +13076,7 @@
         <v>24</v>
       </c>
       <c r="E578" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="K578" s="1">
         <v>5</v>
@@ -13096,7 +13096,7 @@
         <v>16</v>
       </c>
       <c r="E579" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="580" spans="1:25" x14ac:dyDescent="0.25">
@@ -13110,7 +13110,7 @@
         <v>26</v>
       </c>
       <c r="E580" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="R580" s="13">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>15</v>
       </c>
       <c r="E581" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="582" spans="1:25" x14ac:dyDescent="0.25">
@@ -13135,7 +13135,7 @@
         <v>23</v>
       </c>
       <c r="E582" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="V582" s="17">
         <v>-1</v>
@@ -13152,7 +13152,7 @@
         <v>15</v>
       </c>
       <c r="E583" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="R583" s="13">
         <v>-0.5</v>
@@ -13160,7 +13160,7 @@
     </row>
     <row r="584" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B584" t="s">
         <v>7</v>
@@ -13172,7 +13172,7 @@
         <v>5</v>
       </c>
       <c r="E584" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="585" spans="1:25" x14ac:dyDescent="0.25">
@@ -13183,7 +13183,7 @@
         <v>8</v>
       </c>
       <c r="E585" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="R585" s="13">
         <v>0.5</v>
@@ -13200,7 +13200,7 @@
         <v>11</v>
       </c>
       <c r="E586" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="587" spans="1:25" x14ac:dyDescent="0.25">
@@ -13208,7 +13208,7 @@
         <v>14</v>
       </c>
       <c r="E587" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="V587" s="17">
         <v>0.5</v>
@@ -13225,7 +13225,7 @@
         <v>16</v>
       </c>
       <c r="E588" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="589" spans="1:25" x14ac:dyDescent="0.25">
@@ -13233,7 +13233,7 @@
         <v>19</v>
       </c>
       <c r="E589" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="590" spans="1:25" x14ac:dyDescent="0.25">
@@ -13244,7 +13244,7 @@
         <v>19</v>
       </c>
       <c r="E590" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Y590" s="21">
         <v>0.5</v>
@@ -13261,7 +13261,7 @@
         <v>14</v>
       </c>
       <c r="E591" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="S591" s="14">
         <v>-1</v>
@@ -13272,7 +13272,7 @@
         <v>17</v>
       </c>
       <c r="E592" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O592" s="23">
         <v>-1</v>
@@ -13301,10 +13301,10 @@
         <v>18</v>
       </c>
       <c r="E593" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G593" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="594" spans="1:20" x14ac:dyDescent="0.25">
@@ -13312,7 +13312,7 @@
         <v>14</v>
       </c>
       <c r="E594" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O594" s="23">
         <v>0.5</v>
@@ -13329,18 +13329,18 @@
         <v>16</v>
       </c>
       <c r="E595" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F595" t="s">
         <v>37</v>
       </c>
       <c r="H595" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="596" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B596" t="s">
         <v>7</v>
@@ -13352,7 +13352,7 @@
         <v>5</v>
       </c>
       <c r="E596" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="597" spans="1:20" x14ac:dyDescent="0.25">
@@ -13366,7 +13366,7 @@
         <v>7</v>
       </c>
       <c r="E597" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="O597" s="23">
         <v>0.2</v>
@@ -13377,7 +13377,7 @@
         <v>9</v>
       </c>
       <c r="E598" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O598" s="23">
         <v>0.2</v>
@@ -13388,7 +13388,7 @@
         <v>11</v>
       </c>
       <c r="E599" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="O599" s="23">
         <v>0.2</v>
@@ -13402,7 +13402,7 @@
         <v>12</v>
       </c>
       <c r="E600" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G600" t="s">
         <v>40</v>
@@ -13413,7 +13413,7 @@
         <v>13</v>
       </c>
       <c r="E601" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="602" spans="1:20" x14ac:dyDescent="0.25">
@@ -13424,7 +13424,7 @@
         <v>17</v>
       </c>
       <c r="E602" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="603" spans="1:20" x14ac:dyDescent="0.25">
@@ -13438,7 +13438,7 @@
         <v>20</v>
       </c>
       <c r="E603" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="604" spans="1:20" x14ac:dyDescent="0.25">
@@ -13446,7 +13446,7 @@
         <v>22</v>
       </c>
       <c r="E604" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="605" spans="1:20" x14ac:dyDescent="0.25">
@@ -13454,7 +13454,7 @@
         <v>24</v>
       </c>
       <c r="E605" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="S605" s="14">
         <v>-0.5</v>
@@ -13465,7 +13465,7 @@
         <v>28</v>
       </c>
       <c r="E606" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="P606" s="11">
         <v>1</v>
@@ -13479,7 +13479,7 @@
         <v>30</v>
       </c>
       <c r="E607" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="608" spans="1:20" x14ac:dyDescent="0.25">
@@ -13493,7 +13493,7 @@
         <v>28</v>
       </c>
       <c r="E608" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="S608" s="14">
         <v>1</v>
@@ -13507,7 +13507,7 @@
         <v>12</v>
       </c>
       <c r="E609" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="610" spans="1:25" x14ac:dyDescent="0.25">
@@ -13521,7 +13521,7 @@
         <v>26</v>
       </c>
       <c r="E610" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="R610" s="13">
         <v>1</v>
@@ -13532,7 +13532,7 @@
         <v>10</v>
       </c>
       <c r="E611" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="612" spans="1:25" x14ac:dyDescent="0.25">
@@ -13543,7 +13543,7 @@
         <v>10</v>
       </c>
       <c r="E612" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="P612" s="11">
         <v>0.1</v>
@@ -13551,7 +13551,7 @@
     </row>
     <row r="613" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B613" t="s">
         <v>7</v>
@@ -13563,7 +13563,7 @@
         <v>5</v>
       </c>
       <c r="E613" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="614" spans="1:25" x14ac:dyDescent="0.25">
@@ -13571,7 +13571,7 @@
         <v>5</v>
       </c>
       <c r="E614" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="615" spans="1:25" x14ac:dyDescent="0.25">
@@ -13585,7 +13585,7 @@
         <v>7</v>
       </c>
       <c r="E615" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="616" spans="1:25" x14ac:dyDescent="0.25">
@@ -13593,7 +13593,7 @@
         <v>9</v>
       </c>
       <c r="E616" t="s">
-        <v>669</v>
+        <v>732</v>
       </c>
       <c r="Y616" s="21">
         <v>5</v>
@@ -13604,7 +13604,7 @@
         <v>11</v>
       </c>
       <c r="E617" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="618" spans="1:25" x14ac:dyDescent="0.25">
@@ -13612,7 +13612,7 @@
         <v>13</v>
       </c>
       <c r="E618" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="619" spans="1:25" x14ac:dyDescent="0.25">
@@ -13623,7 +13623,7 @@
         <v>9</v>
       </c>
       <c r="E619" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="620" spans="1:25" x14ac:dyDescent="0.25">
@@ -13631,10 +13631,10 @@
         <v>11</v>
       </c>
       <c r="E620" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I620" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="621" spans="1:25" x14ac:dyDescent="0.25">
@@ -13645,10 +13645,10 @@
         <v>15</v>
       </c>
       <c r="E621" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="I621" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="622" spans="1:25" x14ac:dyDescent="0.25">
@@ -13656,10 +13656,10 @@
         <v>17</v>
       </c>
       <c r="E622" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="I622" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="623" spans="1:25" x14ac:dyDescent="0.25">
@@ -13670,7 +13670,7 @@
         <v>17</v>
       </c>
       <c r="E623" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="624" spans="1:25" x14ac:dyDescent="0.25">
@@ -13678,10 +13678,10 @@
         <v>18</v>
       </c>
       <c r="E624" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I624" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="625" spans="1:14" x14ac:dyDescent="0.25">
@@ -13689,10 +13689,10 @@
         <v>19</v>
       </c>
       <c r="E625" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="I625" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="626" spans="1:14" x14ac:dyDescent="0.25">
@@ -13706,7 +13706,7 @@
         <v>22</v>
       </c>
       <c r="E626" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G626" t="s">
         <v>40</v>
@@ -13720,7 +13720,7 @@
         <v>26</v>
       </c>
       <c r="E627" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J627">
         <v>6</v>
@@ -13740,7 +13740,7 @@
         <v>26</v>
       </c>
       <c r="E628" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K628" s="1">
         <v>3</v>
@@ -13760,7 +13760,7 @@
         <v>28</v>
       </c>
       <c r="E629" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="J629">
         <v>7</v>
@@ -13777,10 +13777,10 @@
         <v>22</v>
       </c>
       <c r="E630" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="I630" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="631" spans="1:14" x14ac:dyDescent="0.25">
@@ -13788,7 +13788,7 @@
         <v>16</v>
       </c>
       <c r="E631" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="632" spans="1:14" x14ac:dyDescent="0.25">
@@ -13802,10 +13802,10 @@
         <v>18</v>
       </c>
       <c r="E632" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="I632" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="633" spans="1:14" x14ac:dyDescent="0.25">
@@ -13816,12 +13816,12 @@
         <v>18</v>
       </c>
       <c r="E633" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B634" t="s">
         <v>7</v>
@@ -13833,7 +13833,7 @@
         <v>5</v>
       </c>
       <c r="E634" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="635" spans="1:14" x14ac:dyDescent="0.25">
@@ -13847,7 +13847,7 @@
         <v>7</v>
       </c>
       <c r="E635" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="636" spans="1:14" x14ac:dyDescent="0.25">
@@ -13855,7 +13855,7 @@
         <v>9</v>
       </c>
       <c r="E636" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="637" spans="1:14" x14ac:dyDescent="0.25">
@@ -13863,10 +13863,10 @@
         <v>11</v>
       </c>
       <c r="E637" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G637" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="638" spans="1:14" x14ac:dyDescent="0.25">
@@ -13877,10 +13877,10 @@
         <v>15</v>
       </c>
       <c r="E638" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="I638" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="639" spans="1:14" x14ac:dyDescent="0.25">
@@ -13888,13 +13888,13 @@
         <v>15</v>
       </c>
       <c r="E639" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G639" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I639" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="640" spans="1:14" x14ac:dyDescent="0.25">
@@ -13905,7 +13905,7 @@
         <v>19</v>
       </c>
       <c r="E640" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="641" spans="2:10" x14ac:dyDescent="0.25">
@@ -13913,7 +13913,7 @@
         <v>21</v>
       </c>
       <c r="E641" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="642" spans="2:10" x14ac:dyDescent="0.25">
@@ -13927,10 +13927,10 @@
         <v>20</v>
       </c>
       <c r="E642" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G642" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="643" spans="2:10" x14ac:dyDescent="0.25">
@@ -13938,7 +13938,7 @@
         <v>22</v>
       </c>
       <c r="E643" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="J643">
         <v>6</v>
@@ -13955,10 +13955,10 @@
         <v>21</v>
       </c>
       <c r="E644" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="I644" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="645" spans="2:10" x14ac:dyDescent="0.25">
@@ -13972,7 +13972,7 @@
         <v>20</v>
       </c>
       <c r="E645" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="646" spans="2:10" x14ac:dyDescent="0.25">
@@ -13983,7 +13983,7 @@
         <v>18</v>
       </c>
       <c r="E646" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
